--- a/7_figures/data/Supplementary Table 3.xlsx
+++ b/7_figures/data/Supplementary Table 3.xlsx
@@ -16,10 +16,10 @@
     <sheet name="medulla" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="IRS" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="proliferative" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="IBL" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="ORS" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="IFE" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="HFSC" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="HF-SCs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="IFE basal" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="IFE granular spinous" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ORS" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="melanocytes" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="sebocytes" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
@@ -404,6 +404,138 @@
     <t xml:space="preserve">CDT1</t>
   </si>
   <si>
+    <t xml:space="preserve">KRT15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCEAL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFRP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRZB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL1A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGA6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOX9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGPTL7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL17A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOXD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19orf48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHD7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDH3A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHNAK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDH13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAVIN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EHF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEBPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP53AIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY6D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDZK1IP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGFBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYPD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRABP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPINK5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRTDAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIDEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUSD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM83A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM45A</t>
+  </si>
+  <si>
     <t xml:space="preserve">KRT16</t>
   </si>
   <si>
@@ -443,139 +575,7 @@
     <t xml:space="preserve">MGST1</t>
   </si>
   <si>
-    <t xml:space="preserve">LYPD3</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPX2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRT15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COL17A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOXD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19orf48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALDH3A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AHNAK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDH13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAVIN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EHF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEBPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP53AIP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY6D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDZK1IP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S100A7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGFBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRABP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPINK5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRTDAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIDEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUSD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM83A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMEM45A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCEAL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SFRP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRZB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LHX2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPRY1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COL1A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITGA6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOX9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S100A6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGPTL7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGR5</t>
   </si>
   <si>
     <t xml:space="preserve">DCT</t>
@@ -1226,6 +1226,16 @@
         <v>139</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1242,82 +1252,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1336,47 +1346,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1435,87 +1445,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
